--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
   <si>
     <t>API Mode</t>
   </si>
@@ -535,6 +535,33 @@
   </si>
   <si>
     <t>RMA-TZXY-1-3</t>
+  </si>
+  <si>
+    <t>RMA-W31O-001</t>
+  </si>
+  <si>
+    <t>RMA-W31O-002</t>
+  </si>
+  <si>
+    <t>RMA-W31O-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLEVAA2</t>
+  </si>
+  <si>
+    <t>RMA-W31O-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLEWAA2</t>
+  </si>
+  <si>
+    <t>RMA-W31O-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLEXAA2</t>
+  </si>
+  <si>
+    <t>RMA-W31O-1-3</t>
   </si>
 </sst>
 </file>
@@ -544,7 +571,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="135" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +591,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1294,7 +1393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1482,11 +1581,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="135">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1608,8 +1725,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="122" fillId="0" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="134" fillId="0" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2499,12 +2628,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.94921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.71875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.27734375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.44921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.11328125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2554,10 +2683,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2566,7 +2695,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2583,10 +2712,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2595,7 +2724,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2612,10 +2741,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2624,7 +2753,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="182">
   <si>
     <t>API Mode</t>
   </si>
@@ -562,6 +562,33 @@
   </si>
   <si>
     <t>RMA-W31O-1-3</t>
+  </si>
+  <si>
+    <t>RMA-HVLI-001</t>
+  </si>
+  <si>
+    <t>RMA-HVLI-002</t>
+  </si>
+  <si>
+    <t>RMA-HVLI-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQMAA2</t>
+  </si>
+  <si>
+    <t>RMA-HVLI-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQNAA2</t>
+  </si>
+  <si>
+    <t>RMA-HVLI-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQOAA2</t>
+  </si>
+  <si>
+    <t>RMA-HVLI-1-3</t>
   </si>
 </sst>
 </file>
@@ -571,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="135" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +618,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1393,7 +1492,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1599,11 +1698,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="147">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1737,8 +1854,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="134" fillId="0" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="146" fillId="0" borderId="72" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2628,12 +2757,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.71875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.27734375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.734375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.11328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2683,10 +2812,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2695,7 +2824,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2712,10 +2841,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2724,7 +2853,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2741,10 +2870,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2753,7 +2882,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="209">
   <si>
     <t>API Mode</t>
   </si>
@@ -589,6 +589,87 @@
   </si>
   <si>
     <t>RMA-HVLI-1-3</t>
+  </si>
+  <si>
+    <t>RMA-KBTA-001</t>
+  </si>
+  <si>
+    <t>RMA-KBTA-002</t>
+  </si>
+  <si>
+    <t>RMA-KBTA-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRyAAM</t>
+  </si>
+  <si>
+    <t>RMA-KBTA-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRzAAM</t>
+  </si>
+  <si>
+    <t>RMA-KBTA-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLS0AAM</t>
+  </si>
+  <si>
+    <t>RMA-KBTA-1-3</t>
+  </si>
+  <si>
+    <t>RMA-ZNHC-001</t>
+  </si>
+  <si>
+    <t>RMA-ZNHC-002</t>
+  </si>
+  <si>
+    <t>RMA-ZNHC-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSSAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZNHC-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSTAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZNHC-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSUAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZNHC-1-3</t>
+  </si>
+  <si>
+    <t>RMA-GA3T-001</t>
+  </si>
+  <si>
+    <t>RMA-GA3T-002</t>
+  </si>
+  <si>
+    <t>RMA-GA3T-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSmAAM</t>
+  </si>
+  <si>
+    <t>RMA-GA3T-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSnAAM</t>
+  </si>
+  <si>
+    <t>RMA-GA3T-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSoAAM</t>
+  </si>
+  <si>
+    <t>RMA-GA3T-1-3</t>
   </si>
 </sst>
 </file>
@@ -598,7 +679,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="147" x14ac:knownFonts="1">
+  <fonts count="183" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +699,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1492,7 +1789,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -1716,11 +2013,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="183">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1866,8 +2217,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="146" fillId="0" borderId="72" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="182" fillId="0" borderId="90" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2758,11 +3145,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.484375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.61328125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2812,10 +3199,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2824,7 +3211,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2841,10 +3228,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2853,7 +3240,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2870,10 +3257,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2882,7 +3269,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
